--- a/Data/F022.CPPR.FLU.D063.Z.CLP.D.xlsx
+++ b/Data/F022.CPPR.FLU.D063.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">

--- a/Data/F022.CPPR.FLU.D063.Z.CLP.D.xlsx
+++ b/Data/F022.CPPR.FLU.D063.Z.CLP.D.xlsx
@@ -408,7 +408,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -425,7 +425,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -459,7 +459,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -714,7 +714,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -731,7 +731,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -833,7 +833,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
